--- a/medicine/Œil et vue/Maurice_de_La_Sizeranne/Maurice_de_La_Sizeranne.xlsx
+++ b/medicine/Œil et vue/Maurice_de_La_Sizeranne/Maurice_de_La_Sizeranne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Maurice de La Sizeranne (1857-1924) est le fondateur de l’Association Valentin-Haüy au service des aveugles et des malvoyants.
 </t>
@@ -511,7 +523,9 @@
           <t>Vie et œuvre</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Louis Maurice Monier de La Sizeranne est né à Tain-l'Hermitage, petite ville de la Drôme située sur la rive gauche du Rhône, le 30 juillet 1857. Il a neuf ans lorsqu’il perd la vue dans un accident de jeu.
 Élève à l’Institut national des jeunes aveugles (INJA), il s’y distingue par ses aptitudes musicales et y est nommé professeur de musique en 1878.
@@ -546,11 +560,13 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les Aveugles utiles : accordeurs, professeurs, organistes, 1881 Texte en ligne
  J. Gaudet et les aveugles, sa vie, ses doctrines, ses écrits, 1885
-Les Aveugles, par un aveugle, 1889 Texte en ligne (Prix Montyon - 1889[1])
+Les Aveugles, par un aveugle, 1889 Texte en ligne (Prix Montyon - 1889)
 Les Sœurs aveugles : I. Psychologie de la femme aveugle. II. La communauté des Sœurs aveugles de Saint-Paul, 1901
 La Question des aveugles en 1910, notes et documents, 1910</t>
         </is>
@@ -580,7 +596,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Depuis 1936, la rue séparant l’immeuble de l’Institut national des jeunes aveugles de l’Association Valentin-Haüy dans le 7e arrondissement de Paris se nomme rue Maurice-de-La-Sizeranne.
 </t>
